--- a/DataAnalysis/Ch1Concessions.xlsx
+++ b/DataAnalysis/Ch1Concessions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bell100x001\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carit\Documents\git\andreaforero.github.io\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pivot table" sheetId="5" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Basketball Game Sales'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="32">
   <si>
     <t>Item</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>total cut for coach</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -355,43 +358,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -429,7 +396,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2991,7 +2957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3084,17 +3050,17 @@
     <dataField name="Sum of Price" fld="2" baseField="0" baseItem="4"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="14">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3435,7 +3401,7 @@
       <selection activeCell="A3" sqref="A3:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -3445,7 +3411,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -3461,7 +3427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3469,7 +3435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -3477,7 +3443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -3485,7 +3451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3493,7 +3459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +3467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3475,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
@@ -3517,7 +3483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -3533,7 +3499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3541,7 +3507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
@@ -3549,7 +3515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
@@ -3557,7 +3523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
@@ -3565,7 +3531,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
@@ -3583,16 +3549,16 @@
   <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -3603,7 +3569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3581,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3623,7 +3589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -3631,31 +3597,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="15">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="15">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -3663,7 +3638,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -3671,7 +3646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3679,7 +3654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -3703,7 +3678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3711,7 +3686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3733,14 +3708,14 @@
       <selection pane="bottomLeft" sqref="A1:F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
     <col min="6" max="6" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3782,7 +3757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3804,7 +3779,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3801,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3823,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3870,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3892,7 +3867,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3914,7 +3889,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3936,7 +3911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +3933,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3980,7 +3955,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4002,7 +3977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4024,7 +3999,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4021,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4068,7 +4043,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +4065,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4112,7 +4087,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4134,7 +4109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4156,7 +4131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4178,7 +4153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4175,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4222,7 +4197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4244,7 +4219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +4241,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4263,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4310,7 +4285,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4332,7 +4307,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4354,7 +4329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4376,7 +4351,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4398,7 +4373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4420,7 +4395,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4442,7 +4417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4464,7 +4439,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4486,7 +4461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4508,7 +4483,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4530,7 +4505,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4552,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4574,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -4596,7 +4571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -4618,7 +4593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4640,7 +4615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4662,7 +4637,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4684,7 +4659,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +4681,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -4728,7 +4703,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4725,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4772,7 +4747,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4794,7 +4769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4816,7 +4791,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4838,7 +4813,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4860,7 +4835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -4882,7 +4857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +4879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4926,7 +4901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -4948,7 +4923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -4970,7 +4945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4992,7 +4967,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5014,7 +4989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -5036,7 +5011,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5058,7 +5033,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -5080,7 +5055,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5124,7 +5099,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5146,7 +5121,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5168,7 +5143,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -5190,7 +5165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5212,7 +5187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -5234,7 +5209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -5256,7 +5231,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -5278,7 +5253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5300,7 +5275,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -5322,7 +5297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -5344,7 +5319,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5341,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -5388,7 +5363,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -5410,7 +5385,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -5432,7 +5407,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -5454,7 +5429,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5476,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5498,7 +5473,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5520,7 +5495,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5542,7 +5517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5564,7 +5539,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -5586,7 +5561,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5608,7 +5583,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5630,7 +5605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -5652,7 +5627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5674,7 +5649,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -5696,7 +5671,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5718,7 +5693,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -5740,7 +5715,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -5762,7 +5737,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -5784,7 +5759,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -5806,7 +5781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5803,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -5850,7 +5825,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5872,7 +5847,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -5894,7 +5869,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -5916,7 +5891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5938,7 +5913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -5960,7 +5935,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -5982,7 +5957,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -6004,7 +5979,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -6026,7 +6001,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6048,7 +6023,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -6070,7 +6045,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6092,7 +6067,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -6114,7 +6089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -6136,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6158,7 +6133,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -6180,7 +6155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -6202,7 +6177,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -6224,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -6246,7 +6221,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6243,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -6290,7 +6265,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -6312,7 +6287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -6334,7 +6309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -6356,7 +6331,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -6378,7 +6353,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -6400,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -6422,7 +6397,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -6466,7 +6441,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6488,7 +6463,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6485,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -6532,7 +6507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6529,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -6576,7 +6551,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -6598,7 +6573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -6620,7 +6595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -6642,7 +6617,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -6664,7 +6639,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -6686,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -6708,7 +6683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -6730,7 +6705,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6752,7 +6727,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -6774,7 +6749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -6796,7 +6771,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -6818,7 +6793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6840,7 +6815,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -6862,7 +6837,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -6884,7 +6859,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -6906,7 +6881,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -6928,7 +6903,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -6950,7 +6925,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -6972,7 +6947,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -6994,7 +6969,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -7016,7 +6991,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -7038,7 +7013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -7060,7 +7035,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -7082,7 +7057,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -7104,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7126,7 +7101,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -7148,7 +7123,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -7170,7 +7145,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -7192,7 +7167,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -7214,7 +7189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -7258,7 +7233,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7255,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -7302,7 +7277,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -7324,7 +7299,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -7346,7 +7321,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -7368,7 +7343,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -7390,7 +7365,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -7434,7 +7409,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -7456,7 +7431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -7478,7 +7453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -7500,7 +7475,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -7522,7 +7497,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -7544,7 +7519,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -7566,7 +7541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -7588,7 +7563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -7610,7 +7585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -7632,7 +7607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -7654,7 +7629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -7676,7 +7651,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7698,7 +7673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7720,7 +7695,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -7742,7 +7717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -7764,7 +7739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -7786,7 +7761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -7808,7 +7783,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -7830,7 +7805,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -7852,7 +7827,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -7874,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7896,7 +7871,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7918,7 +7893,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -7940,7 +7915,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7962,7 +7937,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -7984,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -8006,7 +7981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -8028,7 +8003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -8050,7 +8025,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -8072,7 +8047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -8094,7 +8069,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -8116,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -8138,10 +8113,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C202" s="4">
         <f>AVERAGE(C2:C200)</f>
         <v>2.829145728643216</v>
@@ -8177,12 +8152,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8190,7 +8165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8198,7 +8173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -8206,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -8214,7 +8189,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -8222,7 +8197,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -8230,7 +8205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -8238,7 +8213,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8246,7 +8221,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -8254,7 +8229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -8262,7 +8237,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -8270,7 +8245,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8253,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8286,7 +8261,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -8294,7 +8269,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8302,7 +8277,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -8311,7 +8286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -8320,13 +8295,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="6"/>
     </row>
   </sheetData>
@@ -8347,9 +8322,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8396,7 +8371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>23</v>
       </c>

--- a/DataAnalysis/Ch1Concessions.xlsx
+++ b/DataAnalysis/Ch1Concessions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carit\Documents\git\andreaforero.github.io\DataAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bell100x001\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="726" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="726" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pivot table" sheetId="5" r:id="rId1"/>
@@ -21,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Basketball Game Sales'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="31">
   <si>
     <t>Item</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>total cut for coach</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -358,7 +355,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -396,6 +429,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2957,7 +2991,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3050,17 +3084,17 @@
     <dataField name="Sum of Price" fld="2" baseField="0" baseItem="4"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3401,7 +3435,7 @@
       <selection activeCell="A3" sqref="A3:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -3411,7 +3445,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
@@ -3419,7 +3453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +3461,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -3435,7 +3469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -3443,7 +3477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +3485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -3459,7 +3493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -3467,7 +3501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -3475,7 +3509,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
@@ -3483,7 +3517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
@@ -3499,7 +3533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
@@ -3523,7 +3557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
@@ -3531,7 +3565,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
@@ -3549,16 +3583,16 @@
   <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -3569,7 +3603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -3581,7 +3615,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -3589,7 +3623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -3597,40 +3631,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="15">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="15">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3663,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -3646,7 +3671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -3654,7 +3679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -3662,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3686,7 +3711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3708,14 +3733,14 @@
       <selection pane="bottomLeft" sqref="A1:F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
     <col min="6" max="6" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3757,7 +3782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +3804,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3848,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3845,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3867,7 +3892,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3889,7 +3914,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3936,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3933,7 +3958,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3977,7 +4002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3999,7 +4024,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4046,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4043,7 +4068,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4090,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +4112,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4109,7 +4134,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4153,7 +4178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4175,7 +4200,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4197,7 +4222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4219,7 +4244,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4288,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4285,7 +4310,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4307,7 +4332,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4329,7 +4354,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4376,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -4373,7 +4398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4417,7 +4442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4439,7 +4464,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4461,7 +4486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -4505,7 +4530,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4527,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4549,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -4571,7 +4596,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4618,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -4615,7 +4640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4637,7 +4662,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -4659,7 +4684,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4681,7 +4706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -4703,7 +4728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -4725,7 +4750,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4747,7 +4772,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4769,7 +4794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4791,7 +4816,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4813,7 +4838,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4835,7 +4860,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -4857,7 +4882,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4879,7 +4904,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -4901,7 +4926,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -4923,7 +4948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -4945,7 +4970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4967,7 +4992,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +5014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -5011,7 +5036,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -5033,7 +5058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -5055,7 +5080,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -5077,7 +5102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5099,7 +5124,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5121,7 +5146,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5143,7 +5168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -5165,7 +5190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5187,7 +5212,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -5231,7 +5256,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -5253,7 +5278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5275,7 +5300,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -5297,7 +5322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -5319,7 +5344,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -5341,7 +5366,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -5363,7 +5388,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -5385,7 +5410,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -5407,7 +5432,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -5429,7 +5454,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5473,7 +5498,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5495,7 +5520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5517,7 +5542,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5539,7 +5564,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -5561,7 +5586,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5583,7 +5608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -5605,7 +5630,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -5627,7 +5652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5649,7 +5674,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -5671,7 +5696,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5693,7 +5718,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -5715,7 +5740,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -5737,7 +5762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -5759,7 +5784,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -5781,7 +5806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -5803,7 +5828,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +5850,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5847,7 +5872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -5869,7 +5894,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -5891,7 +5916,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -5935,7 +5960,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -5957,7 +5982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -5979,7 +6004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -6001,7 +6026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6023,7 +6048,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -6045,7 +6070,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6067,7 +6092,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6114,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -6111,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6133,7 +6158,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -6155,7 +6180,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -6177,7 +6202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -6199,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -6221,7 +6246,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -6243,7 +6268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -6265,7 +6290,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -6287,7 +6312,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -6309,7 +6334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6356,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -6353,7 +6378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -6375,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -6397,7 +6422,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -6419,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -6441,7 +6466,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6463,7 +6488,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6510,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -6507,7 +6532,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -6529,7 +6554,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -6551,7 +6576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6598,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -6595,7 +6620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -6617,7 +6642,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -6639,7 +6664,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -6661,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6708,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -6705,7 +6730,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6727,7 +6752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -6749,7 +6774,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -6771,7 +6796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -6793,7 +6818,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -6815,7 +6840,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -6837,7 +6862,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -6859,7 +6884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -6881,7 +6906,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -6903,7 +6928,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -6925,7 +6950,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -6947,7 +6972,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -6969,7 +6994,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -6991,7 +7016,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -7013,7 +7038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -7035,7 +7060,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -7057,7 +7082,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -7079,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7101,7 +7126,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -7123,7 +7148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -7145,7 +7170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -7167,7 +7192,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -7189,7 +7214,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -7211,7 +7236,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -7255,7 +7280,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -7277,7 +7302,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -7299,7 +7324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -7321,7 +7346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -7343,7 +7368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -7365,7 +7390,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -7387,7 +7412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -7409,7 +7434,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -7431,7 +7456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -7453,7 +7478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -7475,7 +7500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -7497,7 +7522,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -7519,7 +7544,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -7541,7 +7566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -7563,7 +7588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -7585,7 +7610,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -7607,7 +7632,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -7629,7 +7654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -7651,7 +7676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7673,7 +7698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -7695,7 +7720,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -7717,7 +7742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -7739,7 +7764,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -7761,7 +7786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -7783,7 +7808,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -7805,7 +7830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -7827,7 +7852,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -7849,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -7871,7 +7896,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -7893,7 +7918,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -7915,7 +7940,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -7937,7 +7962,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -7959,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -7981,7 +8006,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -8003,7 +8028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -8025,7 +8050,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -8047,7 +8072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -8069,7 +8094,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
@@ -8091,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -8113,10 +8138,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C202" s="4">
         <f>AVERAGE(C2:C200)</f>
         <v>2.829145728643216</v>
@@ -8152,12 +8177,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8165,7 +8190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8173,7 +8198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -8181,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -8189,7 +8214,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -8197,7 +8222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -8205,7 +8230,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -8213,7 +8238,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8221,7 +8246,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -8229,7 +8254,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -8237,7 +8262,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +8270,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -8253,7 +8278,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -8261,7 +8286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -8269,7 +8294,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8277,7 +8302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -8286,7 +8311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -8295,13 +8320,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
   </sheetData>
@@ -8322,9 +8347,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8371,7 +8396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
